--- a/tests/resources/test_master_4_2017_dcas.xlsx
+++ b/tests/resources/test_master_4_2017_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DfT Group</t>
   </si>
 </sst>
 </file>
@@ -407,11 +410,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -810,6 +813,11 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="1047300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_master_4_2017_dcas.xlsx
+++ b/tests/resources/test_master_4_2017_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">DfT Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Forecast</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,6 +330,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,11 +417,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -817,6 +824,26 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="1047300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_master_4_2017_dcas.xlsx
+++ b/tests/resources/test_master_4_2017_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,6 +847,11 @@
       </c>
       <c r="F25" s="0" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="1047300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
